--- a/PowerLmsServer/数据库初始化数据/预初始化数据.xlsx
+++ b/PowerLmsServer/数据库初始化数据/预初始化数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zc-home\source\ourworldcn\PowerLms\PowerLmsServer\数据库初始化数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB40B5-7D36-46C1-B55D-D3C42C030841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADF05A-F57C-445A-9369-B80CC527CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="21600" windowHeight="11873" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DD_DataDicCatalogs" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10090" uniqueCount="6066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10117" uniqueCount="6084">
   <si>
     <t>Id</t>
   </si>
@@ -20710,12 +20710,66 @@
   <si>
     <t>反关闭账期</t>
   </si>
+  <si>
+    <t>D0.14</t>
+  </si>
+  <si>
+    <t>主单领用登记</t>
+  </si>
+  <si>
+    <t>D0.14.1</t>
+  </si>
+  <si>
+    <t>新建登记</t>
+  </si>
+  <si>
+    <t>D0.14.2</t>
+  </si>
+  <si>
+    <t>查看登记</t>
+  </si>
+  <si>
+    <t>D0.14.3</t>
+  </si>
+  <si>
+    <t>编辑登记</t>
+  </si>
+  <si>
+    <t>D0.14.4</t>
+  </si>
+  <si>
+    <t>删除登记</t>
+  </si>
+  <si>
+    <t>D0.14.5</t>
+  </si>
+  <si>
+    <t>创建领用</t>
+  </si>
+  <si>
+    <t>D0.14.6</t>
+  </si>
+  <si>
+    <t>查看领用</t>
+  </si>
+  <si>
+    <t>D0.14.7</t>
+  </si>
+  <si>
+    <t>编辑领用</t>
+  </si>
+  <si>
+    <t>D0.14.8</t>
+  </si>
+  <si>
+    <t>删除领用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20946,6 +21000,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -21417,7 +21477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -21460,6 +21520,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -34761,10 +34824,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
-  <dimension ref="A1:C693"/>
+  <dimension ref="A1:C702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="A693" sqref="A693"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="A702" sqref="A702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -36046,188 +36109,188 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A117" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>273</v>
+        <v>6066</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>6067</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A118" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>275</v>
+        <v>6068</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>6069</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A119" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>145</v>
+        <v>6070</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>6071</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A120" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>147</v>
+        <v>6072</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>6073</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="8" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>6075</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A122" s="8" t="s">
+        <v>6076</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>6077</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A123" s="8" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>6079</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A124" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>155</v>
+        <v>6080</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>6081</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A125" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>157</v>
+        <v>6082</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>6083</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>276</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="8" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="8" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>276</v>
+      <c r="A130" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>276</v>
+      <c r="A131" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>276</v>
+      <c r="A132" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>276</v>
@@ -36235,10 +36298,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>276</v>
@@ -36246,10 +36309,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="8" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>276</v>
@@ -36257,10 +36320,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="8" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>276</v>
@@ -36268,351 +36331,351 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="8" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="8" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="8" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="8" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="8" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="8" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="8" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="8" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="8" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>317</v>
+      <c r="A161" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>317</v>
+      <c r="A162" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>317</v>
+      <c r="A163" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="8" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="8" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>315</v>
@@ -36620,318 +36683,318 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>272</v>
+      <c r="A170" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>327</v>
+      <c r="A171" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>327</v>
+      <c r="A172" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="8" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="8" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="8" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="8" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>342</v>
+      <c r="A185" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>342</v>
+      <c r="A186" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>342</v>
+      <c r="A187" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>341</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>352</v>
+        <v>147</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>341</v>
+      <c r="A194" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>341</v>
+      <c r="A195" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>341</v>
+      <c r="A196" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="8" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>341</v>
@@ -36939,10 +37002,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>341</v>
@@ -36950,10 +37013,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="8" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>341</v>
@@ -36961,10 +37024,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>341</v>
@@ -36972,10 +37035,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="8" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>341</v>
@@ -36983,10 +37046,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="8" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>169</v>
+        <v>352</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>341</v>
@@ -36994,582 +37057,582 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="8" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>368</v>
+        <v>157</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="8" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="8" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="8" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="8" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="8" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="8" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="8" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="8" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="8" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="8" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="8" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="8" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="8" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="8" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="8" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="8" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>189</v>
+        <v>386</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="8" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="8" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="8" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="8" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>199</v>
+        <v>401</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="8" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="8" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>195</v>
+        <v>405</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="8" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="8" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="8" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="8" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="8" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="8" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A248" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>428</v>
+      <c r="A248" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A249" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C249" s="12" t="s">
-        <v>428</v>
+      <c r="A249" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A250" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>428</v>
+      <c r="A250" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="8" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="8" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>426</v>
@@ -37577,329 +37640,329 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A257" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>338</v>
+      <c r="A257" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A258" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>438</v>
+      <c r="A258" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A259" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>438</v>
+      <c r="A259" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="8" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="8" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="8" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="8" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="8" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="8" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="8" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="8" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="8" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>456</v>
+        <v>247</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="8" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="8" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="8" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A273" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="B273" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>459</v>
+      <c r="A273" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A274" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>459</v>
+      <c r="A274" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A275" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C275" s="12" t="s">
-        <v>459</v>
+      <c r="A275" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="8" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>171</v>
+        <v>453</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="8" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="8" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>175</v>
+        <v>456</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>458</v>
+        <v>138</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="8" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="8" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A282" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>458</v>
+      <c r="A282" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A283" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>458</v>
+      <c r="A283" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A284" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>458</v>
+      <c r="A284" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="8" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>458</v>
@@ -37907,10 +37970,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="8" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>458</v>
@@ -37918,10 +37981,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="8" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>458</v>
@@ -37929,582 +37992,582 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="8" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="8" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>368</v>
+        <v>157</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="8" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="8" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="8" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="8" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>189</v>
+        <v>386</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="8" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="8" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="8" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="8" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="8" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="8" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>199</v>
+        <v>401</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="8" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="8" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>195</v>
+        <v>405</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321" s="8" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="8" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323" s="8" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>509</v>
+        <v>455</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324" s="8" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325" s="8" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326" s="8" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327" s="8" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328" s="8" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329" s="8" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="8" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331" s="8" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="8" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A333" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B333" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C333" s="12" t="s">
-        <v>519</v>
+      <c r="A333" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A334" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="B334" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C334" s="12" t="s">
-        <v>519</v>
+      <c r="A334" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A335" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="B335" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C335" s="12" t="s">
-        <v>519</v>
+      <c r="A335" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336" s="8" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="8" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338" s="8" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="8" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340" s="8" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C340" s="8" t="s">
         <v>517</v>
@@ -38512,329 +38575,329 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341" s="8" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A342" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C342" s="8" t="s">
-        <v>455</v>
+      <c r="A342" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A343" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>529</v>
+      <c r="A343" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A344" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="B344" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>529</v>
+      <c r="A344" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="8" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="8" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347" s="8" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348" s="8" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349" s="8" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350" s="8" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351" s="8" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A352" s="8" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353" s="8" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354" s="8" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>542</v>
+        <v>247</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>138</v>
+        <v>529</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357" s="8" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A358" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B358" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C358" s="13" t="s">
-        <v>545</v>
+      <c r="A358" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A359" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B359" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C359" s="13" t="s">
-        <v>545</v>
+      <c r="A359" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A360" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B360" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C360" s="13" t="s">
-        <v>545</v>
+      <c r="A360" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361" s="8" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363" s="8" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>159</v>
+        <v>542</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>544</v>
+        <v>138</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364" s="8" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365" s="8" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366" s="8" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A367" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="B367" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>544</v>
+      <c r="A367" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B367" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A368" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>544</v>
+      <c r="A368" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B368" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A369" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B369" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C369" s="8" t="s">
-        <v>544</v>
+      <c r="A369" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B369" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370" s="8" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C370" s="8" t="s">
         <v>544</v>
@@ -38842,10 +38905,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371" s="8" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C371" s="8" t="s">
         <v>544</v>
@@ -38853,10 +38916,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372" s="8" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>544</v>
@@ -38864,10 +38927,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C373" s="8" t="s">
         <v>544</v>
@@ -38875,10 +38938,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374" s="8" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>544</v>
@@ -38886,10 +38949,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375" s="8" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C375" s="8" t="s">
         <v>544</v>
@@ -38897,120 +38960,120 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A377" s="8" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A378" s="8" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A379" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="B379" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C379" s="13" t="s">
-        <v>566</v>
+      <c r="A379" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A380" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="B380" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C380" s="13" t="s">
-        <v>566</v>
+      <c r="A380" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A381" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B381" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C381" s="13" t="s">
-        <v>566</v>
+      <c r="A381" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382" s="8" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383" s="8" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384" s="8" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385" s="8" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386" s="8" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>564</v>
@@ -39018,329 +39081,329 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A388" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B388" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C388" s="8" t="s">
-        <v>541</v>
+      <c r="A388" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B388" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A389" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B389" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>576</v>
+      <c r="A389" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B389" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A390" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="B390" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>576</v>
+      <c r="A390" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B390" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392" s="8" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393" s="8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394" s="8" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" s="8" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396" s="8" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397" s="8" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398" s="8" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A400" s="8" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>589</v>
+        <v>247</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>138</v>
+        <v>576</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401" s="8" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402" s="8" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403" s="8" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A404" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="B404" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C404" s="13" t="s">
-        <v>592</v>
+      <c r="A404" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A405" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="B405" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C405" s="13" t="s">
-        <v>592</v>
+      <c r="A405" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A406" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="B406" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C406" s="13" t="s">
-        <v>592</v>
+      <c r="A406" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407" s="8" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408" s="8" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409" s="8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>159</v>
+        <v>589</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>591</v>
+        <v>138</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410" s="8" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412" s="8" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A413" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="B413" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C413" s="8" t="s">
-        <v>591</v>
+      <c r="A413" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B413" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A414" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B414" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C414" s="8" t="s">
-        <v>591</v>
+      <c r="A414" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B414" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A415" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B415" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C415" s="8" t="s">
-        <v>591</v>
+      <c r="A415" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B415" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C415" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416" s="8" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>591</v>
@@ -39348,10 +39411,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417" s="8" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>591</v>
@@ -39359,10 +39422,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418" s="8" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>591</v>
@@ -39370,10 +39433,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419" s="8" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C419" s="8" t="s">
         <v>591</v>
@@ -39381,10 +39444,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420" s="8" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>591</v>
@@ -39392,10 +39455,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421" s="8" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>591</v>
@@ -39403,120 +39466,120 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422" s="8" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A423" s="8" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A424" s="8" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A425" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="B425" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C425" s="13" t="s">
-        <v>613</v>
+      <c r="A425" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A426" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="B426" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C426" s="13" t="s">
-        <v>613</v>
+      <c r="A426" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A427" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="B427" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C427" s="13" t="s">
-        <v>613</v>
+      <c r="A427" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428" s="8" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429" s="8" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430" s="8" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431" s="8" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432" s="8" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C432" s="8" t="s">
         <v>611</v>
@@ -39524,329 +39587,329 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433" s="8" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C433" s="8" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A434" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C434" s="8" t="s">
-        <v>588</v>
+      <c r="A434" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B434" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A435" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C435" s="8" t="s">
-        <v>623</v>
+      <c r="A435" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B435" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C435" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A436" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B436" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C436" s="8" t="s">
-        <v>623</v>
+      <c r="A436" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B436" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437" s="8" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438" s="8" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440" s="8" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441" s="8" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442" s="8" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443" s="8" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A444" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445" s="8" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446" s="8" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>636</v>
+        <v>247</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>138</v>
+        <v>623</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447" s="8" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448" s="8" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449" s="8" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A450" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="B450" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C450" s="13" t="s">
-        <v>639</v>
+      <c r="A450" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C450" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A451" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="B451" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C451" s="13" t="s">
-        <v>639</v>
+      <c r="A451" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A452" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="B452" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C452" s="13" t="s">
-        <v>639</v>
+      <c r="A452" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453" s="8" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454" s="8" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455" s="8" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>159</v>
+        <v>636</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>638</v>
+        <v>138</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456" s="8" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457" s="8" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458" s="8" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A459" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="B459" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C459" s="8" t="s">
-        <v>638</v>
+      <c r="A459" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B459" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C459" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A460" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B460" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C460" s="8" t="s">
-        <v>638</v>
+      <c r="A460" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B460" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A461" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="B461" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C461" s="8" t="s">
-        <v>638</v>
+      <c r="A461" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="B461" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C461" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462" s="8" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>638</v>
@@ -39854,10 +39917,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463" s="8" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>638</v>
@@ -39865,10 +39928,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464" s="8" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>638</v>
@@ -39876,10 +39939,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465" s="8" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>638</v>
@@ -39887,10 +39950,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466" s="8" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>638</v>
@@ -39898,10 +39961,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467" s="8" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C467" s="8" t="s">
         <v>638</v>
@@ -39909,120 +39972,120 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468" s="8" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469" s="8" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470" s="8" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A471" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="B471" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C471" s="13" t="s">
-        <v>660</v>
+      <c r="A471" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A472" s="13" t="s">
-        <v>662</v>
-      </c>
-      <c r="B472" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C472" s="13" t="s">
-        <v>660</v>
+      <c r="A472" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A473" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="B473" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C473" s="13" t="s">
-        <v>660</v>
+      <c r="A473" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474" s="8" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475" s="8" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476" s="8" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478" s="8" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>658</v>
@@ -40030,329 +40093,329 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479" s="8" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C479" s="8" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A480" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="B480" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C480" s="8" t="s">
-        <v>635</v>
+      <c r="A480" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="B480" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A481" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B481" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C481" s="8" t="s">
-        <v>670</v>
+      <c r="A481" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B481" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C481" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A482" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="B482" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C482" s="8" t="s">
-        <v>670</v>
+      <c r="A482" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B482" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483" s="8" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484" s="8" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485" s="8" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486" s="8" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487" s="8" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488" s="8" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489" s="8" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A490" s="8" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A491" s="8" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A492" s="8" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>683</v>
+        <v>247</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>138</v>
+        <v>670</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493" s="8" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494" s="8" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495" s="8" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A496" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="B496" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C496" s="13" t="s">
-        <v>686</v>
+      <c r="A496" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C496" s="8" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A497" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="B497" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C497" s="13" t="s">
-        <v>686</v>
+      <c r="A497" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A498" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="B498" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C498" s="13" t="s">
-        <v>686</v>
+      <c r="A498" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C498" s="8" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499" s="8" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500" s="8" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501" s="8" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>159</v>
+        <v>683</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>685</v>
+        <v>138</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502" s="8" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503" s="8" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504" s="8" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C504" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A505" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="B505" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C505" s="8" t="s">
-        <v>685</v>
+      <c r="A505" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B505" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C505" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A506" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="B506" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C506" s="8" t="s">
-        <v>685</v>
+      <c r="A506" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B506" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C506" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A507" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="B507" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C507" s="8" t="s">
-        <v>685</v>
+      <c r="A507" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B507" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C507" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508" s="8" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C508" s="8" t="s">
         <v>685</v>
@@ -40360,10 +40423,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509" s="8" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C509" s="8" t="s">
         <v>685</v>
@@ -40371,10 +40434,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510" s="8" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>685</v>
@@ -40382,10 +40445,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511" s="8" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C511" s="8" t="s">
         <v>685</v>
@@ -40393,10 +40456,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512" s="8" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="C512" s="8" t="s">
         <v>685</v>
@@ -40404,10 +40467,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513" s="8" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C513" s="8" t="s">
         <v>685</v>
@@ -40415,120 +40478,120 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514" s="8" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A515" s="8" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A516" s="8" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C516" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A517" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="B517" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C517" s="13" t="s">
-        <v>707</v>
+      <c r="A517" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C517" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A518" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B518" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C518" s="13" t="s">
-        <v>707</v>
+      <c r="A518" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C518" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A519" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="B519" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C519" s="13" t="s">
-        <v>707</v>
+      <c r="A519" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A520" s="8" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C520" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A521" s="8" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A522" s="8" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A523" s="8" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A524" s="8" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C524" s="8" t="s">
         <v>705</v>
@@ -40536,329 +40599,329 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A525" s="8" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C525" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A526" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="B526" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C526" s="8" t="s">
-        <v>682</v>
+      <c r="A526" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B526" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C526" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A527" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="B527" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C527" s="8" t="s">
-        <v>717</v>
+      <c r="A527" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B527" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C527" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A528" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="B528" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C528" s="8" t="s">
-        <v>717</v>
+      <c r="A528" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B528" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C528" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529" s="8" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530" s="8" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532" s="8" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533" s="8" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534" s="8" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C534" s="8" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535" s="8" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>723</v>
+        <v>682</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A536" s="8" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C536" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A537" s="8" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A538" s="8" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>730</v>
+        <v>247</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>138</v>
+        <v>717</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A539" s="8" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A540" s="8" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A541" s="8" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A542" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="B542" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C542" s="13" t="s">
-        <v>733</v>
+      <c r="A542" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C542" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A543" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="B543" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C543" s="13" t="s">
-        <v>733</v>
+      <c r="A543" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C543" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A544" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="B544" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C544" s="13" t="s">
-        <v>733</v>
+      <c r="A544" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C544" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A545" s="8" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A546" s="8" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A547" s="8" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>159</v>
+        <v>730</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>732</v>
+        <v>138</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A548" s="8" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A549" s="8" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A550" s="8" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C550" s="8" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A551" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="B551" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C551" s="8" t="s">
-        <v>732</v>
+      <c r="A551" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B551" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C551" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A552" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="B552" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C552" s="8" t="s">
-        <v>732</v>
+      <c r="A552" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B552" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C552" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A553" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="B553" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C553" s="8" t="s">
-        <v>732</v>
+      <c r="A553" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B553" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C553" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A554" s="8" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C554" s="8" t="s">
         <v>732</v>
@@ -40866,10 +40929,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A555" s="8" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C555" s="8" t="s">
         <v>732</v>
@@ -40877,10 +40940,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A556" s="8" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>732</v>
@@ -40888,10 +40951,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557" s="8" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C557" s="8" t="s">
         <v>732</v>
@@ -40899,10 +40962,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558" s="8" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="C558" s="8" t="s">
         <v>732</v>
@@ -40910,10 +40973,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559" s="8" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C559" s="8" t="s">
         <v>732</v>
@@ -40921,120 +40984,120 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560" s="8" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A561" s="8" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A562" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A563" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="B563" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C563" s="13" t="s">
-        <v>754</v>
+      <c r="A563" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C563" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A564" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="B564" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C564" s="13" t="s">
-        <v>754</v>
+      <c r="A564" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C564" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A565" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="B565" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C565" s="13" t="s">
-        <v>754</v>
+      <c r="A565" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C565" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A566" s="8" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C566" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567" s="8" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C567" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568" s="8" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569" s="8" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570" s="8" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C570" s="8" t="s">
         <v>752</v>
@@ -41042,329 +41105,329 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571" s="8" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C571" s="8" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A572" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="B572" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C572" s="8" t="s">
-        <v>729</v>
+      <c r="A572" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B572" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C572" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A573" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="B573" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C573" s="8" t="s">
-        <v>764</v>
+      <c r="A573" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="B573" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C573" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A574" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="B574" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C574" s="8" t="s">
-        <v>764</v>
+      <c r="A574" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B574" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C574" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575" s="8" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576" s="8" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577" s="8" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578" s="8" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C578" s="8" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579" s="8" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C580" s="8" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581" s="8" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>770</v>
+        <v>729</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A582" s="8" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C582" s="8" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A583" s="8" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A584" s="8" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>777</v>
+        <v>247</v>
       </c>
       <c r="C584" s="8" t="s">
-        <v>138</v>
+        <v>764</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585" s="8" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586" s="8" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="C586" s="8" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587" s="8" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C587" s="8" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A588" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="B588" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C588" s="13" t="s">
-        <v>780</v>
+      <c r="A588" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B588" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C588" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A589" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="B589" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C589" s="13" t="s">
-        <v>780</v>
+      <c r="A589" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B589" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C589" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A590" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="B590" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C590" s="13" t="s">
-        <v>780</v>
+      <c r="A590" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B590" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C590" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A591" s="8" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C591" s="8" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A592" s="8" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="C592" s="8" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593" s="8" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>159</v>
+        <v>777</v>
       </c>
       <c r="C593" s="8" t="s">
-        <v>779</v>
+        <v>138</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594" s="8" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C594" s="8" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595" s="8" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C595" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A596" s="8" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C596" s="8" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A597" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="B597" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C597" s="8" t="s">
-        <v>779</v>
+      <c r="A597" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="B597" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C597" s="13" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A598" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="B598" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C598" s="8" t="s">
-        <v>779</v>
+      <c r="A598" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B598" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C598" s="13" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A599" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="B599" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C599" s="8" t="s">
-        <v>779</v>
+      <c r="A599" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="B599" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C599" s="13" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600" s="8" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C600" s="8" t="s">
         <v>779</v>
@@ -41372,10 +41435,10 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601" s="8" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C601" s="8" t="s">
         <v>779</v>
@@ -41383,10 +41446,10 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602" s="8" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C602" s="8" t="s">
         <v>779</v>
@@ -41394,10 +41457,10 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603" s="8" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C603" s="8" t="s">
         <v>779</v>
@@ -41405,10 +41468,10 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604" s="8" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="C604" s="8" t="s">
         <v>779</v>
@@ -41416,10 +41479,10 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605" s="8" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="C605" s="8" t="s">
         <v>779</v>
@@ -41427,120 +41490,120 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A606" s="8" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C606" s="8" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A607" s="8" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C607" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A608" s="8" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C608" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A609" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B609" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C609" s="13" t="s">
-        <v>801</v>
+      <c r="A609" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B609" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C609" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A610" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="B610" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C610" s="13" t="s">
-        <v>801</v>
+      <c r="A610" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="B610" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C610" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A611" s="13" t="s">
-        <v>804</v>
-      </c>
-      <c r="B611" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C611" s="13" t="s">
-        <v>801</v>
+      <c r="A611" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B611" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C611" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612" s="8" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C612" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613" s="8" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C613" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614" s="8" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C614" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615" s="8" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C615" s="8" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616" s="8" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C616" s="8" t="s">
         <v>799</v>
@@ -41548,263 +41611,263 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617" s="8" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C617" s="8" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A618" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="B618" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C618" s="8" t="s">
-        <v>776</v>
+      <c r="A618" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B618" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C618" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A619" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="B619" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C619" s="8" t="s">
-        <v>811</v>
+      <c r="A619" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="B619" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C619" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A620" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="B620" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C620" s="8" t="s">
-        <v>811</v>
+      <c r="A620" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B620" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C620" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621" s="8" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622" s="8" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623" s="8" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624" s="8" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A625" s="8" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A626" s="8" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="C626" s="8" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A627" s="8" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>817</v>
+        <v>776</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A628" s="8" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A629" s="8" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A630" s="8" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>824</v>
+        <v>247</v>
       </c>
       <c r="C630" s="8" t="s">
-        <v>138</v>
+        <v>811</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A631" s="8" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>826</v>
+        <v>249</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A632" s="8" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>828</v>
+        <v>444</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A633" s="8" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>830</v>
+        <v>251</v>
       </c>
       <c r="C633" s="8" t="s">
-        <v>823</v>
+        <v>776</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A634" s="8" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>832</v>
+        <v>447</v>
       </c>
       <c r="C634" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A635" s="8" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>834</v>
+        <v>449</v>
       </c>
       <c r="C635" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A636" s="8" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>836</v>
+        <v>451</v>
       </c>
       <c r="C636" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A637" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>838</v>
+        <v>453</v>
       </c>
       <c r="C637" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A638" s="8" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>840</v>
+        <v>261</v>
       </c>
       <c r="C638" s="8" t="s">
-        <v>823</v>
+        <v>776</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A639" s="8" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="C639" s="8" t="s">
-        <v>823</v>
+        <v>138</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A640" s="8" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="C640" s="8" t="s">
         <v>823</v>
@@ -41812,241 +41875,241 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A641" s="8" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="C641" s="8" t="s">
-        <v>51</v>
+        <v>823</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A642" s="8" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="C642" s="8" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A643" s="14" t="s">
-        <v>849</v>
-      </c>
-      <c r="B643" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="C643" s="14" t="s">
-        <v>845</v>
+      <c r="A643" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B643" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C643" s="8" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A644" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="B644" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C644" s="11" t="s">
-        <v>845</v>
+      <c r="A644" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B644" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C644" s="8" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A645" s="8" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="C645" s="8" t="s">
-        <v>51</v>
+        <v>823</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A646" s="8" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="C646" s="8" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A647" s="8" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>243</v>
+        <v>840</v>
       </c>
       <c r="C647" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A648" s="8" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>245</v>
+        <v>842</v>
       </c>
       <c r="C648" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A649" s="8" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>247</v>
+        <v>844</v>
       </c>
       <c r="C649" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A650" s="8" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="C650" s="8" t="s">
-        <v>855</v>
+        <v>51</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A651" s="8" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>249</v>
+        <v>848</v>
       </c>
       <c r="C651" s="8" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A652" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="B652" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="C652" s="8" t="s">
-        <v>853</v>
+      <c r="A652" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="B652" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="C652" s="14" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A653" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="B653" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="C653" s="8" t="s">
-        <v>863</v>
+      <c r="A653" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B653" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C653" s="11" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A654" s="8" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="C654" s="8" t="s">
-        <v>863</v>
+        <v>51</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A655" s="8" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C655" s="8" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A656" s="8" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>872</v>
+        <v>243</v>
       </c>
       <c r="C656" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A657" s="8" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>874</v>
+        <v>245</v>
       </c>
       <c r="C657" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A658" s="8" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>876</v>
+        <v>247</v>
       </c>
       <c r="C658" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A659" s="8" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="C659" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A660" s="8" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>880</v>
+        <v>249</v>
       </c>
       <c r="C660" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A661" s="8" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="C661" s="8" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A662" s="8" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="C662" s="8" t="s">
         <v>863</v>
@@ -42054,10 +42117,10 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A663" s="8" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="B663" s="8" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="C663" s="8" t="s">
         <v>863</v>
@@ -42065,331 +42128,430 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A664" s="8" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="C664" s="8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A665" s="11" t="s">
-        <v>6064</v>
-      </c>
-      <c r="B665" s="11" t="s">
-        <v>6065</v>
-      </c>
-      <c r="C665" s="11" t="s">
-        <v>863</v>
+      <c r="A665" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="B665" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C665" s="8" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A666" s="8" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="C666" s="8" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A667" s="8" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="C667" s="8" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A668" s="8" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="C668" s="8" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A669" s="12" t="s">
-        <v>895</v>
-      </c>
-      <c r="B669" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="C669" s="12" t="s">
-        <v>889</v>
+      <c r="A669" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="B669" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C669" s="8" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A670" s="8" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="C670" s="8" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A671" s="12" t="s">
-        <v>899</v>
-      </c>
-      <c r="B671" s="12" t="s">
-        <v>900</v>
-      </c>
-      <c r="C671" s="12" t="s">
-        <v>889</v>
+      <c r="A671" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="B671" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C671" s="8" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A672" s="8" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="C672" s="8" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A673" s="8" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="C673" s="8" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A674" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="B674" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="C674" s="8" t="s">
-        <v>901</v>
+      <c r="A674" s="11" t="s">
+        <v>6064</v>
+      </c>
+      <c r="B674" s="11" t="s">
+        <v>6065</v>
+      </c>
+      <c r="C674" s="11" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A675" s="8" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="C675" s="8" t="s">
-        <v>901</v>
+        <v>853</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A676" s="8" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="C676" s="8" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A677" s="8" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="C677" s="8" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A678" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="B678" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="C678" s="8" t="s">
-        <v>901</v>
+      <c r="A678" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="B678" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C678" s="12" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A679" s="8" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="C679" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A680" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="B680" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="C680" s="12" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A681" s="8" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A680" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B680" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="C680" s="11" t="s">
+      <c r="B681" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C681" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A682" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B682" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C682" s="8" t="s">
         <v>901</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A681" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="B681" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="C681" s="11" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A682" s="15" t="s">
-        <v>921</v>
-      </c>
-      <c r="B682" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="C682" s="15" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A683" s="8" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="C683" s="8" t="s">
-        <v>51</v>
+        <v>901</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A684" s="8" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="B684" s="8" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
       <c r="C684" s="8" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A685" s="8" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="C685" s="9" t="s">
-        <v>925</v>
+        <v>910</v>
+      </c>
+      <c r="C685" s="8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A686" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B686" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C686" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A687" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B687" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="C687" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A688" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B688" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="C688" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A689" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="B689" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C689" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A690" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B690" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C690" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A691" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="B691" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C691" s="15" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A692" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B692" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="C692" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A693" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B693" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C693" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A694" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B694" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="C694" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A695" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="B686" s="8" t="s">
+      <c r="B695" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="C686" s="9" t="s">
+      <c r="C695" s="9" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A687" s="14" t="s">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A696" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="B687" s="14" t="s">
+      <c r="B696" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="C687" s="16" t="s">
+      <c r="C696" s="16" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A688" s="11" t="s">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A697" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="B688" s="11" t="s">
+      <c r="B697" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="C688" s="17" t="s">
+      <c r="C697" s="17" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A689" s="8" t="s">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A698" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="B689" s="8" t="s">
+      <c r="B698" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="C689" s="8" t="s">
+      <c r="C698" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A690" s="12" t="s">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A699" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="B690" s="12" t="s">
+      <c r="B699" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C690" s="12" t="s">
+      <c r="C699" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A691" s="12" t="s">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A700" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="B691" s="12" t="s">
+      <c r="B700" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C691" s="12" t="s">
+      <c r="C700" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A692" s="12" t="s">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A701" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="B692" s="12" t="s">
+      <c r="B701" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C692" s="12" t="s">
+      <c r="C701" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A693" s="12" t="s">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A702" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="B693" s="12" t="s">
+      <c r="B702" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="C693" s="12" t="s">
+      <c r="C702" s="12" t="s">
         <v>935</v>
       </c>
     </row>

--- a/PowerLmsServer/数据库初始化数据/预初始化数据.xlsx
+++ b/PowerLmsServer/数据库初始化数据/预初始化数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zc-home\source\ourworldcn\PowerLms\PowerLmsServer\数据库初始化数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADF05A-F57C-445A-9369-B80CC527CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF960AD-02E8-495E-A572-B62FBDAE392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1440" windowWidth="21600" windowHeight="11873" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10117" uniqueCount="6084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10147" uniqueCount="6104">
   <si>
     <t>Id</t>
   </si>
@@ -20764,12 +20764,72 @@
   <si>
     <t>删除领用</t>
   </si>
+  <si>
+    <t>D0.15</t>
+  </si>
+  <si>
+    <t>主单制作</t>
+  </si>
+  <si>
+    <t>D0.15.1</t>
+  </si>
+  <si>
+    <t>新建主单</t>
+  </si>
+  <si>
+    <t>D0.15.2</t>
+  </si>
+  <si>
+    <t>查看主单</t>
+  </si>
+  <si>
+    <t>D0.15.3</t>
+  </si>
+  <si>
+    <t>编辑主单</t>
+  </si>
+  <si>
+    <t>D0.15.4</t>
+  </si>
+  <si>
+    <t>删除主单</t>
+  </si>
+  <si>
+    <t>D0.16</t>
+  </si>
+  <si>
+    <t>分单制作</t>
+  </si>
+  <si>
+    <t>D0.16.1</t>
+  </si>
+  <si>
+    <t>新建分单</t>
+  </si>
+  <si>
+    <t>D0.16.2</t>
+  </si>
+  <si>
+    <t>查看分单</t>
+  </si>
+  <si>
+    <t>D0.16.3</t>
+  </si>
+  <si>
+    <t>编辑分单</t>
+  </si>
+  <si>
+    <t>D0.16.4</t>
+  </si>
+  <si>
+    <t>删除分单</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21004,6 +21064,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -21477,7 +21543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -21521,6 +21587,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34824,10 +34893,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
-  <dimension ref="A1:C702"/>
+  <dimension ref="A1:C712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="A702" sqref="A702"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="A712" sqref="A712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -36113,7 +36182,7 @@
       <c r="A117" s="8" t="s">
         <v>6066</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="19" t="s">
         <v>6067</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -36124,7 +36193,7 @@
       <c r="A118" s="8" t="s">
         <v>6068</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="19" t="s">
         <v>6069</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -36135,7 +36204,7 @@
       <c r="A119" s="8" t="s">
         <v>6070</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="19" t="s">
         <v>6071</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -36146,7 +36215,7 @@
       <c r="A120" s="8" t="s">
         <v>6072</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="19" t="s">
         <v>6073</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -36157,7 +36226,7 @@
       <c r="A121" s="8" t="s">
         <v>6074</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="19" t="s">
         <v>6075</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -36168,7 +36237,7 @@
       <c r="A122" s="8" t="s">
         <v>6076</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="19" t="s">
         <v>6077</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -36179,7 +36248,7 @@
       <c r="A123" s="8" t="s">
         <v>6078</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="19" t="s">
         <v>6079</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -36190,7 +36259,7 @@
       <c r="A124" s="8" t="s">
         <v>6080</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="19" t="s">
         <v>6081</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -36201,206 +36270,206 @@
       <c r="A125" s="8" t="s">
         <v>6082</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="19" t="s">
         <v>6083</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>6066</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A126" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>273</v>
+        <v>6084</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>6085</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A127" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>275</v>
+        <v>6086</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>6087</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A128" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>145</v>
+        <v>6088</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>6089</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A129" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>147</v>
+        <v>6090</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>6091</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A130" s="8" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>6093</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A131" s="8" t="s">
+        <v>6094</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>6095</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A132" s="8" t="s">
+        <v>6096</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>6097</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>155</v>
+        <v>6098</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>6099</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>157</v>
+        <v>6100</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>6101</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A135" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>159</v>
+        <v>6102</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>6103</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>276</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>276</v>
+      <c r="A140" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>276</v>
+      <c r="A141" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>276</v>
+      <c r="A142" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="8" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>276</v>
@@ -36408,10 +36477,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>276</v>
@@ -36419,10 +36488,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>276</v>
@@ -36430,362 +36499,362 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="8" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="8" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="8" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="8" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="8" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="8" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="8" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="8" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="8" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>317</v>
+      <c r="A170" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>317</v>
+      <c r="A171" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>317</v>
+      <c r="A172" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="8" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="8" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="8" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>315</v>
@@ -36793,120 +36862,120 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>327</v>
+      <c r="A180" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>327</v>
+      <c r="A181" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>327</v>
+      <c r="A182" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="8" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="8" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>272</v>
@@ -36914,197 +36983,197 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>342</v>
+      <c r="A194" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>342</v>
+      <c r="A195" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>342</v>
+      <c r="A196" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="8" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="8" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>177</v>
+        <v>339</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>341</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="8" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="8" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>352</v>
+        <v>145</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="8" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>354</v>
+        <v>147</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>341</v>
+      <c r="A204" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>341</v>
+      <c r="A205" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>341</v>
+      <c r="A206" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>341</v>
@@ -37112,10 +37181,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>341</v>
@@ -37123,10 +37192,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="8" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>341</v>
@@ -37134,10 +37203,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="8" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>341</v>
@@ -37145,10 +37214,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="8" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>341</v>
@@ -37156,186 +37225,186 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="8" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="8" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="8" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="8" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="8" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="8" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>376</v>
+        <v>163</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="8" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="8" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="8" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="8" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="8" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="8" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="8" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="8" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>340</v>
@@ -37343,54 +37412,54 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="8" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="8" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>185</v>
+        <v>380</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="8" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>340</v>
@@ -37398,351 +37467,351 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="8" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="8" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="8" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="8" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="8" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="8" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="8" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="8" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="8" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="8" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="8" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>204</v>
+        <v>407</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="8" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="8" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="8" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="8" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="8" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="8" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="8" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="8" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="8" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="8" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A257" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>428</v>
+      <c r="A257" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A258" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C258" s="12" t="s">
-        <v>428</v>
+      <c r="A258" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A259" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>428</v>
+      <c r="A259" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="8" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="8" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="8" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="8" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="8" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>426</v>
@@ -37750,329 +37819,329 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="8" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A267" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>438</v>
+      <c r="A267" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A268" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>438</v>
+      <c r="A268" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A269" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>438</v>
+      <c r="A269" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="8" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="8" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="8" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="8" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="8" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="8" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="8" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="8" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="8" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="8" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="8" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="8" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A282" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>459</v>
+      <c r="A282" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A283" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B283" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>459</v>
+      <c r="A283" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A284" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>459</v>
+      <c r="A284" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>171</v>
+        <v>451</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="8" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>173</v>
+        <v>453</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="8" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="8" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>177</v>
+        <v>456</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>458</v>
+        <v>138</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="8" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="8" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A292" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>458</v>
+      <c r="A292" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A293" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>458</v>
+      <c r="A293" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A294" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>458</v>
+      <c r="A294" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="8" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>458</v>
@@ -38080,10 +38149,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="8" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>458</v>
@@ -38091,186 +38160,186 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="8" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="8" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="8" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="8" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="8" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="8" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>376</v>
+        <v>163</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="8" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="8" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="8" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="8" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="8" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="8" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="8" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="8" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="8" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>457</v>
@@ -38278,54 +38347,54 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="8" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="8" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>185</v>
+        <v>380</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="8" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>457</v>
@@ -38333,351 +38402,351 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="8" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="8" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325" s="8" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326" s="8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327" s="8" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328" s="8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329" s="8" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331" s="8" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>204</v>
+        <v>407</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333" s="8" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>509</v>
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334" s="8" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335" s="8" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336" s="8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="8" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338" s="8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="8" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340" s="8" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341" s="8" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A342" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B342" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C342" s="12" t="s">
-        <v>519</v>
+      <c r="A342" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A343" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="B343" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C343" s="12" t="s">
-        <v>519</v>
+      <c r="A343" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A344" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="B344" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C344" s="12" t="s">
-        <v>519</v>
+      <c r="A344" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="8" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="8" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347" s="8" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348" s="8" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349" s="8" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350" s="8" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C350" s="8" t="s">
         <v>517</v>
@@ -38685,329 +38754,329 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351" s="8" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A352" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C352" s="8" t="s">
-        <v>529</v>
+      <c r="A352" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A353" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>529</v>
+      <c r="A353" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A354" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C354" s="8" t="s">
-        <v>529</v>
+      <c r="A354" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358" s="8" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A360" s="8" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361" s="8" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362" s="8" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363" s="8" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>542</v>
+        <v>245</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>138</v>
+        <v>529</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364" s="8" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365" s="8" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366" s="8" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A367" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B367" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C367" s="13" t="s">
-        <v>545</v>
+      <c r="A367" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A368" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B368" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C368" s="13" t="s">
-        <v>545</v>
+      <c r="A368" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A369" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B369" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C369" s="13" t="s">
-        <v>545</v>
+      <c r="A369" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370" s="8" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371" s="8" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372" s="8" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373" s="8" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>161</v>
+        <v>542</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>544</v>
+        <v>138</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374" s="8" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A377" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>544</v>
+      <c r="A377" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B377" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C377" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A378" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C378" s="8" t="s">
-        <v>544</v>
+      <c r="A378" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B378" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A379" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C379" s="8" t="s">
-        <v>544</v>
+      <c r="A379" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B379" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A380" s="8" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C380" s="8" t="s">
         <v>544</v>
@@ -39015,10 +39084,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A381" s="8" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>544</v>
@@ -39026,10 +39095,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382" s="8" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C382" s="8" t="s">
         <v>544</v>
@@ -39037,10 +39106,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383" s="8" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>544</v>
@@ -39048,10 +39117,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384" s="8" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>544</v>
@@ -39059,131 +39128,131 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385" s="8" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386" s="8" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A388" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="B388" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C388" s="13" t="s">
-        <v>566</v>
+      <c r="A388" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A389" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="B389" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C389" s="13" t="s">
-        <v>566</v>
+      <c r="A389" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A390" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B390" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C390" s="13" t="s">
-        <v>566</v>
+      <c r="A390" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392" s="8" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393" s="8" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394" s="8" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" s="8" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396" s="8" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>564</v>
@@ -39191,329 +39260,329 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A398" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B398" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>576</v>
+      <c r="A398" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B398" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A399" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>576</v>
+      <c r="A399" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B399" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A400" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C400" s="8" t="s">
-        <v>576</v>
+      <c r="A400" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B400" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401" s="8" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402" s="8" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403" s="8" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A404" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A405" s="8" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A406" s="8" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407" s="8" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409" s="8" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>589</v>
+        <v>245</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>138</v>
+        <v>576</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410" s="8" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A413" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="B413" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C413" s="13" t="s">
-        <v>592</v>
+      <c r="A413" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A414" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="B414" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C414" s="13" t="s">
-        <v>592</v>
+      <c r="A414" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A415" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="B415" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C415" s="13" t="s">
-        <v>592</v>
+      <c r="A415" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416" s="8" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417" s="8" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418" s="8" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419" s="8" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>161</v>
+        <v>589</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>591</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420" s="8" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421" s="8" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422" s="8" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A423" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B423" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>591</v>
+      <c r="A423" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B423" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C423" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A424" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B424" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>591</v>
+      <c r="A424" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B424" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A425" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B425" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C425" s="8" t="s">
-        <v>591</v>
+      <c r="A425" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B425" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C425" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A426" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>591</v>
@@ -39521,10 +39590,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427" s="8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>591</v>
@@ -39532,10 +39601,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428" s="8" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>591</v>
@@ -39543,10 +39612,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429" s="8" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>591</v>
@@ -39554,10 +39623,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430" s="8" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>591</v>
@@ -39565,131 +39634,131 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431" s="8" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432" s="8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433" s="8" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A434" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="B434" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C434" s="13" t="s">
-        <v>613</v>
+      <c r="A434" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A435" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="B435" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C435" s="13" t="s">
-        <v>613</v>
+      <c r="A435" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A436" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="B436" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C436" s="13" t="s">
-        <v>613</v>
+      <c r="A436" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437" s="8" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438" s="8" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439" s="8" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440" s="8" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441" s="8" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442" s="8" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C442" s="8" t="s">
         <v>611</v>
@@ -39697,329 +39766,329 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443" s="8" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A444" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="B444" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C444" s="8" t="s">
-        <v>623</v>
+      <c r="A444" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B444" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A445" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B445" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C445" s="8" t="s">
-        <v>623</v>
+      <c r="A445" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B445" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A446" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="B446" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C446" s="8" t="s">
-        <v>623</v>
+      <c r="A446" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B446" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447" s="8" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448" s="8" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449" s="8" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A450" s="8" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A451" s="8" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A452" s="8" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453" s="8" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454" s="8" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455" s="8" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>636</v>
+        <v>245</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>138</v>
+        <v>623</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456" s="8" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457" s="8" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458" s="8" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A459" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="B459" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C459" s="13" t="s">
-        <v>639</v>
+      <c r="A459" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A460" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="B460" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C460" s="13" t="s">
-        <v>639</v>
+      <c r="A460" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A461" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="B461" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C461" s="13" t="s">
-        <v>639</v>
+      <c r="A461" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462" s="8" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463" s="8" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464" s="8" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465" s="8" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>161</v>
+        <v>636</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>638</v>
+        <v>138</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466" s="8" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467" s="8" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468" s="8" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C468" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A469" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B469" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C469" s="8" t="s">
-        <v>638</v>
+      <c r="A469" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B469" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A470" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="B470" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>638</v>
+      <c r="A470" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B470" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A471" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B471" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C471" s="8" t="s">
-        <v>638</v>
+      <c r="A471" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="B471" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C471" s="13" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472" s="8" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C472" s="8" t="s">
         <v>638</v>
@@ -40027,10 +40096,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473" s="8" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C473" s="8" t="s">
         <v>638</v>
@@ -40038,10 +40107,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474" s="8" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>638</v>
@@ -40049,10 +40118,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475" s="8" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>638</v>
@@ -40060,10 +40129,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476" s="8" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="C476" s="8" t="s">
         <v>638</v>
@@ -40071,131 +40140,131 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477" s="8" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478" s="8" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479" s="8" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A480" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="B480" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C480" s="13" t="s">
-        <v>660</v>
+      <c r="A480" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C480" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A481" s="13" t="s">
-        <v>662</v>
-      </c>
-      <c r="B481" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C481" s="13" t="s">
-        <v>660</v>
+      <c r="A481" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A482" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="B482" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C482" s="13" t="s">
-        <v>660</v>
+      <c r="A482" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C482" s="8" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483" s="8" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484" s="8" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485" s="8" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486" s="8" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487" s="8" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488" s="8" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C488" s="8" t="s">
         <v>658</v>
@@ -40203,329 +40272,329 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489" s="8" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A490" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B490" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C490" s="8" t="s">
-        <v>670</v>
+      <c r="A490" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="B490" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A491" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="B491" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C491" s="8" t="s">
-        <v>670</v>
+      <c r="A491" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B491" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A492" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="B492" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C492" s="8" t="s">
-        <v>670</v>
+      <c r="A492" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B492" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493" s="8" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494" s="8" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495" s="8" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A496" s="8" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A497" s="8" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A498" s="8" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499" s="8" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500" s="8" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501" s="8" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>683</v>
+        <v>245</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>138</v>
+        <v>670</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502" s="8" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503" s="8" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504" s="8" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A505" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="B505" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C505" s="13" t="s">
-        <v>686</v>
+      <c r="A505" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C505" s="8" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A506" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="B506" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C506" s="13" t="s">
-        <v>686</v>
+      <c r="A506" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C506" s="8" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A507" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="B507" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C507" s="13" t="s">
-        <v>686</v>
+      <c r="A507" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C507" s="8" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508" s="8" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509" s="8" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510" s="8" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511" s="8" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>161</v>
+        <v>683</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>685</v>
+        <v>138</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512" s="8" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513" s="8" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514" s="8" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C514" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A515" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="B515" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C515" s="8" t="s">
-        <v>685</v>
+      <c r="A515" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B515" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C515" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A516" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="B516" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C516" s="8" t="s">
-        <v>685</v>
+      <c r="A516" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B516" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C516" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A517" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="B517" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C517" s="8" t="s">
-        <v>685</v>
+      <c r="A517" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B517" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C517" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A518" s="8" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C518" s="8" t="s">
         <v>685</v>
@@ -40533,10 +40602,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A519" s="8" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C519" s="8" t="s">
         <v>685</v>
@@ -40544,10 +40613,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A520" s="8" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C520" s="8" t="s">
         <v>685</v>
@@ -40555,10 +40624,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A521" s="8" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="C521" s="8" t="s">
         <v>685</v>
@@ -40566,10 +40635,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A522" s="8" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="C522" s="8" t="s">
         <v>685</v>
@@ -40577,131 +40646,131 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A523" s="8" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A524" s="8" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A525" s="8" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A526" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="B526" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C526" s="13" t="s">
-        <v>707</v>
+      <c r="A526" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C526" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A527" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B527" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C527" s="13" t="s">
-        <v>707</v>
+      <c r="A527" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C527" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A528" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="B528" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C528" s="13" t="s">
-        <v>707</v>
+      <c r="A528" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B528" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C528" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529" s="8" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530" s="8" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531" s="8" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532" s="8" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533" s="8" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534" s="8" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C534" s="8" t="s">
         <v>705</v>
@@ -40709,329 +40778,329 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535" s="8" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A536" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="B536" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C536" s="8" t="s">
-        <v>717</v>
+      <c r="A536" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B536" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C536" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A537" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="B537" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C537" s="8" t="s">
-        <v>717</v>
+      <c r="A537" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B537" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C537" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A538" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="B538" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C538" s="8" t="s">
-        <v>717</v>
+      <c r="A538" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B538" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C538" s="13" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A539" s="8" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A540" s="8" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A541" s="8" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A542" s="8" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A543" s="8" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A544" s="8" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A545" s="8" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>723</v>
+        <v>682</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A546" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A547" s="8" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>730</v>
+        <v>245</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>138</v>
+        <v>717</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A548" s="8" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A549" s="8" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A550" s="8" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A551" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="B551" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C551" s="13" t="s">
-        <v>733</v>
+      <c r="A551" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C551" s="8" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A552" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="B552" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C552" s="13" t="s">
-        <v>733</v>
+      <c r="A552" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B552" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C552" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A553" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="B553" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C553" s="13" t="s">
-        <v>733</v>
+      <c r="A553" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C553" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A554" s="8" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A555" s="8" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A556" s="8" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557" s="8" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>161</v>
+        <v>730</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>732</v>
+        <v>138</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558" s="8" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559" s="8" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560" s="8" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C560" s="8" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A561" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="B561" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C561" s="8" t="s">
-        <v>732</v>
+      <c r="A561" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B561" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C561" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A562" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="B562" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C562" s="8" t="s">
-        <v>732</v>
+      <c r="A562" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B562" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C562" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A563" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="B563" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C563" s="8" t="s">
-        <v>732</v>
+      <c r="A563" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B563" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C563" s="13" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A564" s="8" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C564" s="8" t="s">
         <v>732</v>
@@ -41039,10 +41108,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A565" s="8" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C565" s="8" t="s">
         <v>732</v>
@@ -41050,10 +41119,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A566" s="8" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C566" s="8" t="s">
         <v>732</v>
@@ -41061,10 +41130,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567" s="8" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="C567" s="8" t="s">
         <v>732</v>
@@ -41072,10 +41141,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568" s="8" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="C568" s="8" t="s">
         <v>732</v>
@@ -41083,131 +41152,131 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569" s="8" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570" s="8" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571" s="8" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A572" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="B572" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C572" s="13" t="s">
-        <v>754</v>
+      <c r="A572" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B572" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C572" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A573" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="B573" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C573" s="13" t="s">
-        <v>754</v>
+      <c r="A573" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B573" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C573" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A574" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="B574" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C574" s="13" t="s">
-        <v>754</v>
+      <c r="A574" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C574" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575" s="8" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576" s="8" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577" s="8" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578" s="8" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C578" s="8" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579" s="8" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580" s="8" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C580" s="8" t="s">
         <v>752</v>
@@ -41215,329 +41284,329 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581" s="8" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A582" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="B582" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C582" s="8" t="s">
-        <v>764</v>
+      <c r="A582" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B582" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C582" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A583" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="B583" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C583" s="8" t="s">
-        <v>764</v>
+      <c r="A583" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="B583" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C583" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A584" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="B584" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C584" s="8" t="s">
-        <v>764</v>
+      <c r="A584" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B584" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C584" s="13" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585" s="8" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586" s="8" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C586" s="8" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587" s="8" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C587" s="8" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A588" s="8" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C588" s="8" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A589" s="8" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C589" s="8" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A590" s="8" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C590" s="8" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A591" s="8" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C591" s="8" t="s">
-        <v>770</v>
+        <v>729</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A592" s="8" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C592" s="8" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593" s="8" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>777</v>
+        <v>245</v>
       </c>
       <c r="C593" s="8" t="s">
-        <v>138</v>
+        <v>764</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C594" s="8" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595" s="8" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C595" s="8" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A596" s="8" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="C596" s="8" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A597" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="B597" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C597" s="13" t="s">
-        <v>780</v>
+      <c r="A597" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B597" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C597" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A598" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="B598" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C598" s="13" t="s">
-        <v>780</v>
+      <c r="A598" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B598" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C598" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A599" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="B599" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C599" s="13" t="s">
-        <v>780</v>
+      <c r="A599" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B599" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C599" s="8" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600" s="8" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="C600" s="8" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601" s="8" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="C601" s="8" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602" s="8" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C602" s="8" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603" s="8" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>161</v>
+        <v>777</v>
       </c>
       <c r="C603" s="8" t="s">
-        <v>779</v>
+        <v>138</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604" s="8" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="C604" s="8" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605" s="8" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A606" s="8" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C606" s="8" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A607" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="B607" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C607" s="8" t="s">
-        <v>779</v>
+      <c r="A607" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="B607" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C607" s="13" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A608" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="B608" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C608" s="8" t="s">
-        <v>779</v>
+      <c r="A608" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B608" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C608" s="13" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A609" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="B609" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C609" s="8" t="s">
-        <v>779</v>
+      <c r="A609" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="B609" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C609" s="13" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A610" s="8" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C610" s="8" t="s">
         <v>779</v>
@@ -41545,10 +41614,10 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A611" s="8" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C611" s="8" t="s">
         <v>779</v>
@@ -41556,10 +41625,10 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612" s="8" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C612" s="8" t="s">
         <v>779</v>
@@ -41567,10 +41636,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613" s="8" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="C613" s="8" t="s">
         <v>779</v>
@@ -41578,10 +41647,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614" s="8" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="C614" s="8" t="s">
         <v>779</v>
@@ -41589,131 +41658,131 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615" s="8" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C615" s="8" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616" s="8" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617" s="8" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A618" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B618" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C618" s="13" t="s">
-        <v>801</v>
+      <c r="A618" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B618" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C618" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A619" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="B619" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C619" s="13" t="s">
-        <v>801</v>
+      <c r="A619" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C619" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A620" s="13" t="s">
-        <v>804</v>
-      </c>
-      <c r="B620" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C620" s="13" t="s">
-        <v>801</v>
+      <c r="A620" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="B620" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C620" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621" s="8" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622" s="8" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623" s="8" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624" s="8" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A625" s="8" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A626" s="8" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C626" s="8" t="s">
         <v>799</v>
@@ -41721,505 +41790,505 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A627" s="8" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A628" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="B628" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C628" s="8" t="s">
-        <v>811</v>
+      <c r="A628" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B628" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C628" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A629" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="B629" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C629" s="8" t="s">
-        <v>811</v>
+      <c r="A629" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="B629" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C629" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A630" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="B630" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C630" s="8" t="s">
-        <v>811</v>
+      <c r="A630" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B630" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C630" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A631" s="8" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A632" s="8" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A633" s="8" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B633" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C633" s="8" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A634" s="8" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="C634" s="8" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A635" s="8" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C635" s="8" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A636" s="8" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>451</v>
+        <v>239</v>
       </c>
       <c r="C636" s="8" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A637" s="8" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C637" s="8" t="s">
-        <v>817</v>
+        <v>776</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A638" s="8" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B638" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C638" s="8" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A639" s="8" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>824</v>
+        <v>245</v>
       </c>
       <c r="C639" s="8" t="s">
-        <v>138</v>
+        <v>811</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A640" s="8" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>826</v>
+        <v>247</v>
       </c>
       <c r="C640" s="8" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A641" s="8" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B641" s="8" t="s">
-        <v>828</v>
+        <v>249</v>
       </c>
       <c r="C641" s="8" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A642" s="8" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>830</v>
+        <v>444</v>
       </c>
       <c r="C642" s="8" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A643" s="8" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>832</v>
+        <v>251</v>
       </c>
       <c r="C643" s="8" t="s">
-        <v>823</v>
+        <v>776</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A644" s="8" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>834</v>
+        <v>447</v>
       </c>
       <c r="C644" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A645" s="8" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>836</v>
+        <v>449</v>
       </c>
       <c r="C645" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A646" s="8" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>838</v>
+        <v>451</v>
       </c>
       <c r="C646" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A647" s="8" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="B647" s="8" t="s">
-        <v>840</v>
+        <v>453</v>
       </c>
       <c r="C647" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A648" s="8" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>842</v>
+        <v>261</v>
       </c>
       <c r="C648" s="8" t="s">
-        <v>823</v>
+        <v>776</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A649" s="8" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="C649" s="8" t="s">
-        <v>823</v>
+        <v>138</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A650" s="8" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="C650" s="8" t="s">
-        <v>51</v>
+        <v>823</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A651" s="8" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="C651" s="8" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A652" s="14" t="s">
-        <v>849</v>
-      </c>
-      <c r="B652" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="C652" s="14" t="s">
-        <v>845</v>
+      <c r="A652" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B652" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C652" s="8" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A653" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="B653" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C653" s="11" t="s">
-        <v>845</v>
+      <c r="A653" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B653" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C653" s="8" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A654" s="8" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C654" s="8" t="s">
-        <v>51</v>
+        <v>823</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A655" s="8" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C655" s="8" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A656" s="8" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>243</v>
+        <v>838</v>
       </c>
       <c r="C656" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A657" s="8" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>245</v>
+        <v>840</v>
       </c>
       <c r="C657" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A658" s="8" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>247</v>
+        <v>842</v>
       </c>
       <c r="C658" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A659" s="8" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="B659" s="8" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="C659" s="8" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A660" s="8" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>249</v>
+        <v>846</v>
       </c>
       <c r="C660" s="8" t="s">
-        <v>855</v>
+        <v>51</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A661" s="8" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="B661" s="8" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="C661" s="8" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A662" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="B662" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="C662" s="8" t="s">
-        <v>863</v>
+      <c r="A662" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="B662" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="C662" s="14" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A663" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="B663" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="C663" s="8" t="s">
-        <v>863</v>
+      <c r="A663" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C663" s="11" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A664" s="8" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="C664" s="8" t="s">
-        <v>867</v>
+        <v>51</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A665" s="8" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="C665" s="8" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A666" s="8" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>874</v>
+        <v>243</v>
       </c>
       <c r="C666" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A667" s="8" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>876</v>
+        <v>245</v>
       </c>
       <c r="C667" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A668" s="8" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="B668" s="8" t="s">
-        <v>878</v>
+        <v>247</v>
       </c>
       <c r="C668" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A669" s="8" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="B669" s="8" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="C669" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A670" s="8" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>882</v>
+        <v>249</v>
       </c>
       <c r="C670" s="8" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A671" s="8" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="C671" s="8" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A672" s="8" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="B672" s="8" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="C672" s="8" t="s">
         <v>863</v>
@@ -42227,331 +42296,441 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A673" s="8" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="C673" s="8" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A674" s="11" t="s">
-        <v>6064</v>
-      </c>
-      <c r="B674" s="11" t="s">
-        <v>6065</v>
-      </c>
-      <c r="C674" s="11" t="s">
-        <v>863</v>
+      <c r="A674" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B674" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C674" s="8" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A675" s="8" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="B675" s="8" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="C675" s="8" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A676" s="8" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="C676" s="8" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A677" s="8" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="B677" s="8" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="C677" s="8" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A678" s="12" t="s">
-        <v>895</v>
-      </c>
-      <c r="B678" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="C678" s="12" t="s">
-        <v>889</v>
+      <c r="A678" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B678" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C678" s="8" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A679" s="8" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="C679" s="8" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A680" s="12" t="s">
-        <v>899</v>
-      </c>
-      <c r="B680" s="12" t="s">
-        <v>900</v>
-      </c>
-      <c r="C680" s="12" t="s">
-        <v>889</v>
+      <c r="A680" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B680" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C680" s="8" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A681" s="8" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="C681" s="8" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A682" s="8" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="C682" s="8" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A683" s="8" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="C683" s="8" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A684" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="B684" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="C684" s="8" t="s">
-        <v>901</v>
+      <c r="A684" s="11" t="s">
+        <v>6064</v>
+      </c>
+      <c r="B684" s="11" t="s">
+        <v>6065</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A685" s="8" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="C685" s="8" t="s">
-        <v>901</v>
+        <v>853</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A686" s="8" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="C686" s="8" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A687" s="8" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="C687" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A688" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="B688" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C688" s="12" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A689" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B689" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C689" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A690" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="B690" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="C690" s="12" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A691" s="8" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A688" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="B688" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="C688" s="8" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A689" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B689" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="C689" s="11" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A690" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="B690" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="C690" s="11" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A691" s="15" t="s">
-        <v>921</v>
-      </c>
-      <c r="B691" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="C691" s="15" t="s">
+      <c r="B691" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C691" s="8" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A692" s="8" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="C692" s="8" t="s">
-        <v>51</v>
+        <v>901</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A693" s="8" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="C693" s="8" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A694" s="8" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="C694" s="9" t="s">
-        <v>925</v>
+        <v>908</v>
+      </c>
+      <c r="C694" s="8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A695" s="8" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="C695" s="9" t="s">
-        <v>925</v>
+        <v>910</v>
+      </c>
+      <c r="C695" s="8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A696" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="B696" s="14" t="s">
-        <v>932</v>
-      </c>
-      <c r="C696" s="16" t="s">
-        <v>925</v>
+      <c r="A696" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B696" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C696" s="8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A697" s="11" t="s">
-        <v>933</v>
-      </c>
-      <c r="B697" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="C697" s="17" t="s">
-        <v>925</v>
+      <c r="A697" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B697" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="C697" s="8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A698" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B698" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="C698" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A699" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="B699" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C699" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A700" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B700" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C700" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A701" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="B701" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C701" s="15" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A702" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B702" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="C702" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A703" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B703" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C703" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A704" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B704" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="C704" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A705" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B705" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C705" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A706" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="B706" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="C706" s="16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A707" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B707" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C707" s="17" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A708" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="B698" s="8" t="s">
+      <c r="B708" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="C698" s="8" t="s">
+      <c r="C708" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A699" s="12" t="s">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A709" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="B699" s="12" t="s">
+      <c r="B709" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C699" s="12" t="s">
+      <c r="C709" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A700" s="12" t="s">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A710" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="B700" s="12" t="s">
+      <c r="B710" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C700" s="12" t="s">
+      <c r="C710" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A701" s="12" t="s">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A711" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="B701" s="12" t="s">
+      <c r="B711" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C701" s="12" t="s">
+      <c r="C711" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A702" s="12" t="s">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A712" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="B702" s="12" t="s">
+      <c r="B712" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="C702" s="12" t="s">
+      <c r="C712" s="12" t="s">
         <v>935</v>
       </c>
     </row>

--- a/PowerLmsServer/数据库初始化数据/预初始化数据.xlsx
+++ b/PowerLmsServer/数据库初始化数据/预初始化数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zc-home\source\ourworldcn\PowerLms\PowerLmsServer\数据库初始化数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF960AD-02E8-495E-A572-B62FBDAE392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DBE975-C581-4672-834C-9661BC738A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1440" windowWidth="21600" windowHeight="11873" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34895,8 +34895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
   <dimension ref="A1:C712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="A712" sqref="A712"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
